--- a/reference_memristor_data/G_variation.xlsx
+++ b/reference_memristor_data/G_variation.xlsx
@@ -1,44 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62537\AppData\Roaming\MobaXterm\slash\RemoteFiles\3803176_3_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E90E5-CD0C-48C2-8D50-076996DB30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,18 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -92,44 +66,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -156,15 +130,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -191,7 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -203,165 +175,602 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
-        <v>5.4371333333333334E-2</v>
+        <v>1.8610815E-09</v>
       </c>
       <c r="B1">
-        <v>2.3029500000000002E-3</v>
+        <v>1.095064E-10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1.7636645E-09</v>
+      </c>
+      <c r="B2">
+        <v>7.507280000000002E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1.9728565E-09</v>
+      </c>
+      <c r="B3">
+        <v>1.082096E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1.9853455E-09</v>
+      </c>
+      <c r="B4">
+        <v>1.285288E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1.906104E-09</v>
+      </c>
+      <c r="B5">
+        <v>1.252872E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1.959796E-09</v>
+      </c>
+      <c r="B6">
+        <v>1.358144E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>1.947269E-09</v>
+      </c>
+      <c r="B7">
+        <v>1.44412E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>1.930786E-09</v>
+      </c>
+      <c r="B8">
+        <v>1.512496E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>1.8913415E-09</v>
+      </c>
+      <c r="B9">
+        <v>1.503352E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>1.8964805E-09</v>
+      </c>
+      <c r="B10">
+        <v>1.579896E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1.7307205E-09</v>
+      </c>
+      <c r="B11">
+        <v>1.21824E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1.846125E-09</v>
+      </c>
+      <c r="B12">
+        <v>1.46924E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1.915697000000001E-09</v>
+      </c>
+      <c r="B13">
+        <v>1.65452E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1.869098E-09</v>
+      </c>
+      <c r="B14">
+        <v>1.694688E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1.831004E-09</v>
+      </c>
+      <c r="B15">
+        <v>1.47948E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1.8482075E-09</v>
+      </c>
+      <c r="B16">
+        <v>1.56052E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1.8654145E-09</v>
+      </c>
+      <c r="B17">
+        <v>1.671296E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1.8402465E-09</v>
+      </c>
+      <c r="B18">
+        <v>1.654064E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1.8357005E-09</v>
+      </c>
+      <c r="B19">
+        <v>1.701096E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1.820674E-09</v>
+      </c>
+      <c r="B20">
+        <v>1.738792E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1.8326335E-09</v>
+      </c>
+      <c r="B21">
+        <v>1.788648E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1.8584065E-09</v>
+      </c>
+      <c r="B22">
+        <v>1.825368E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1.8252035E-09</v>
+      </c>
+      <c r="B23">
+        <v>1.863152E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1.826294E-09</v>
+      </c>
+      <c r="B24">
+        <v>1.847664E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1.7932455E-09</v>
+      </c>
+      <c r="B25">
+        <v>1.79324E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1.8128155E-09</v>
+      </c>
+      <c r="B26">
+        <v>1.790032E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1.822742E-09</v>
+      </c>
+      <c r="B27">
+        <v>1.87948E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1.81707E-09</v>
+      </c>
+      <c r="B28">
+        <v>1.870688E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1.803341E-09</v>
+      </c>
+      <c r="B29">
+        <v>1.959984E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1.791327E-09</v>
+      </c>
+      <c r="B30">
+        <v>1.86876E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1.7630225E-09</v>
+      </c>
+      <c r="B31">
+        <v>1.82988E-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1.755343E-09</v>
+      </c>
+      <c r="B32">
+        <v>1.801768E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1.761573E-09</v>
+      </c>
+      <c r="B33">
+        <v>1.827376E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1.808821E-09</v>
+      </c>
+      <c r="B34">
+        <v>1.778992E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1.785951E-09</v>
+      </c>
+      <c r="B35">
+        <v>1.87096E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1.812718E-09</v>
+      </c>
+      <c r="B36">
+        <v>1.879104E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1.819952E-09</v>
+      </c>
+      <c r="B37">
+        <v>1.892208E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1.7910025E-09</v>
+      </c>
+      <c r="B38">
+        <v>1.86428E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1.770661E-09</v>
+      </c>
+      <c r="B39">
+        <v>1.76788E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1.772141E-09</v>
+      </c>
+      <c r="B40">
+        <v>1.803648E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1.810063E-09</v>
+      </c>
+      <c r="B41">
+        <v>1.879216E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1.7639475E-09</v>
+      </c>
+      <c r="B42">
+        <v>1.699224E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1.8000415E-09</v>
+      </c>
+      <c r="B43">
+        <v>1.868064E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1.78268E-09</v>
+      </c>
+      <c r="B44">
+        <v>1.856144E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1.754033E-09</v>
+      </c>
+      <c r="B45">
+        <v>1.79792E-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1.796249E-09</v>
+      </c>
+      <c r="B46">
+        <v>1.924624E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1.7696415E-09</v>
+      </c>
+      <c r="B47">
+        <v>1.90624E-10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1.803121E-09</v>
+      </c>
+      <c r="B48">
+        <v>2.004784E-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1.8061805E-09</v>
+      </c>
+      <c r="B49">
+        <v>1.974424E-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1.8123435E-09</v>
+      </c>
+      <c r="B50">
+        <v>2.013536E-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1.812663E-09</v>
+      </c>
+      <c r="B51">
+        <v>2.040296E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1.8094345E-09</v>
+      </c>
+      <c r="B52">
+        <v>2.059776E-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1.7468625E-09</v>
+      </c>
+      <c r="B53">
+        <v>1.979304E-10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>